--- a/biology/Histoire de la zoologie et de la botanique/William_Dunlop_Brackenridge/William_Dunlop_Brackenridge.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Dunlop_Brackenridge/William_Dunlop_Brackenridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Dunlop Brackenridge (1810-1893) est un horticulteur, explorateur et botaniste écossais et américain.
 Il a participé à l'exploration du pacifique nord de 1838 à 1842.
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>United States Exploring Expedition Report, Volume XVI - Botany - Filices. 1854.
 United States Exploring Expedition Report, Volume XVI - Botany - Filices: Atlas. 1856.</t>
@@ -544,7 +558,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Brackenridgea de la famille des Ochnacées lui a été dédié.
 </t>
@@ -575,7 +591,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Généalogie de William Dunlop Brackenridge
 Australian National Herbarium - Biographies</t>
